--- a/datos1.xlsx
+++ b/datos1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RTC\OneDrive - UNIVERSIDAD PRIVADA DE TACNA\UJCM\Investigacion de operaciones III\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RTC\OneDrive - UNIVERSIDAD PRIVADA DE TACNA\UJCM\Investigacion de operaciones III\Ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="136">
   <si>
     <t>fuentes</t>
   </si>
@@ -43,6 +44,396 @@
   </si>
   <si>
     <t>nodos</t>
+  </si>
+  <si>
+    <t>Nodo</t>
+  </si>
+  <si>
+    <t>Colegio</t>
+  </si>
+  <si>
+    <t>Distrito</t>
+  </si>
+  <si>
+    <t>Lugar</t>
+  </si>
+  <si>
+    <t>Latitud</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
+  <si>
+    <t>Altitud</t>
+  </si>
+  <si>
+    <t>ALEXANDER FLEMING</t>
+  </si>
+  <si>
+    <t>MOQUEGUA</t>
+  </si>
+  <si>
+    <t>AVENIDA LA PAZ 310</t>
+  </si>
+  <si>
+    <t>-17.19202</t>
+  </si>
+  <si>
+    <t>-70.93874</t>
+  </si>
+  <si>
+    <t>1396</t>
+  </si>
+  <si>
+    <t>JUAN PABLO II</t>
+  </si>
+  <si>
+    <t>MZ C LOTE 11</t>
+  </si>
+  <si>
+    <t>-17.19111</t>
+  </si>
+  <si>
+    <t>-70.92896</t>
+  </si>
+  <si>
+    <t>1441</t>
+  </si>
+  <si>
+    <t>BENJAMIN FRANKLIN</t>
+  </si>
+  <si>
+    <t>JIRON LIMA 905</t>
+  </si>
+  <si>
+    <t>-17.19125</t>
+  </si>
+  <si>
+    <t>-70.93304</t>
+  </si>
+  <si>
+    <t>1417</t>
+  </si>
+  <si>
+    <t>BILINGÜE MAX UHLE</t>
+  </si>
+  <si>
+    <t>MZ B LOTE 11</t>
+  </si>
+  <si>
+    <t>-17.1908</t>
+  </si>
+  <si>
+    <t>-70.92845</t>
+  </si>
+  <si>
+    <t>1438</t>
+  </si>
+  <si>
+    <t>CEBA - LORD BYRON</t>
+  </si>
+  <si>
+    <t>CALLE AREQUIPA 340</t>
+  </si>
+  <si>
+    <t>-17.19325</t>
+  </si>
+  <si>
+    <t>-70.93365</t>
+  </si>
+  <si>
+    <t>1431</t>
+  </si>
+  <si>
+    <t>COLEGIO ADVENTISTA FERNANDO STAHL</t>
+  </si>
+  <si>
+    <t>CALLE ILO 333</t>
+  </si>
+  <si>
+    <t>-17.19657</t>
+  </si>
+  <si>
+    <t>-70.93493</t>
+  </si>
+  <si>
+    <t>1444</t>
+  </si>
+  <si>
+    <t>EMMI PIKLER</t>
+  </si>
+  <si>
+    <t>CALLE HUAYCO H-10</t>
+  </si>
+  <si>
+    <t>-17.18723</t>
+  </si>
+  <si>
+    <t>-70.92546</t>
+  </si>
+  <si>
+    <t>1434</t>
+  </si>
+  <si>
+    <t>FLAVISUR</t>
+  </si>
+  <si>
+    <t>CALLE PIURA 142</t>
+  </si>
+  <si>
+    <t>-17.19353</t>
+  </si>
+  <si>
+    <t>-70.93808</t>
+  </si>
+  <si>
+    <t>1409</t>
+  </si>
+  <si>
+    <t>FRANCISCO FAHLMAN SELINGER</t>
+  </si>
+  <si>
+    <t>FUNDO ACACOLLO D-3</t>
+  </si>
+  <si>
+    <t>-17.18902</t>
+  </si>
+  <si>
+    <t>-70.94032</t>
+  </si>
+  <si>
+    <t>1379</t>
+  </si>
+  <si>
+    <t>HOPE S SCHOOL</t>
+  </si>
+  <si>
+    <t>PASAJE EL SALVADOR S/N MZ G LOTE 13</t>
+  </si>
+  <si>
+    <t>-17.18942</t>
+  </si>
+  <si>
+    <t>-70.93798</t>
+  </si>
+  <si>
+    <t>1388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INNOVA SCHOOLS </t>
+  </si>
+  <si>
+    <t>CALLE 01 CRUCE AV. SIMON BOLIVAR S/N</t>
+  </si>
+  <si>
+    <t>-17.18823</t>
+  </si>
+  <si>
+    <t>-70.93521</t>
+  </si>
+  <si>
+    <t>1387</t>
+  </si>
+  <si>
+    <t>JUAN XXIII</t>
+  </si>
+  <si>
+    <t>AVENIDA 25 DE NOVIEMBRE S/N</t>
+  </si>
+  <si>
+    <t>-17.1904</t>
+  </si>
+  <si>
+    <t>-70.93139</t>
+  </si>
+  <si>
+    <t>1420</t>
+  </si>
+  <si>
+    <t>KINDERLAND</t>
+  </si>
+  <si>
+    <t>MZ F LOTE 18-19</t>
+  </si>
+  <si>
+    <t>-17.18868</t>
+  </si>
+  <si>
+    <t>-70.9282</t>
+  </si>
+  <si>
+    <t>1437</t>
+  </si>
+  <si>
+    <t>LITHVIN</t>
+  </si>
+  <si>
+    <t>MZ D LOTE 11</t>
+  </si>
+  <si>
+    <t>-17.19108</t>
+  </si>
+  <si>
+    <t>-70.94926</t>
+  </si>
+  <si>
+    <t>1373</t>
+  </si>
+  <si>
+    <t>MY LITTLE BEE COLLEGE</t>
+  </si>
+  <si>
+    <t>EL HUAYCO</t>
+  </si>
+  <si>
+    <t>-17.1872</t>
+  </si>
+  <si>
+    <t>-70.92659</t>
+  </si>
+  <si>
+    <t>NIÑA MARIA</t>
+  </si>
+  <si>
+    <t>AVENIDA ANDRES AVELINO CACERES 420</t>
+  </si>
+  <si>
+    <t>-17.18897</t>
+  </si>
+  <si>
+    <t>-70.92709</t>
+  </si>
+  <si>
+    <t>1448</t>
+  </si>
+  <si>
+    <t>NUESTRA SEÑORA DE MONSERRAT</t>
+  </si>
+  <si>
+    <t>AVENIDA PRIMAVERA MZ F LOTE 1</t>
+  </si>
+  <si>
+    <t>-17.19147</t>
+  </si>
+  <si>
+    <t>-70.92777</t>
+  </si>
+  <si>
+    <t>1445</t>
+  </si>
+  <si>
+    <t>PERU MEX MARIA BELEN</t>
+  </si>
+  <si>
+    <t>CALLE CUZCO 328</t>
+  </si>
+  <si>
+    <t>-17.19636</t>
+  </si>
+  <si>
+    <t>-70.936</t>
+  </si>
+  <si>
+    <t>ROBERT GAGNE</t>
+  </si>
+  <si>
+    <t>CALLE ILO 445</t>
+  </si>
+  <si>
+    <t>-17.1961</t>
+  </si>
+  <si>
+    <t>-70.93405</t>
+  </si>
+  <si>
+    <t>SANTA MARIA EUFRASIA INFOTEC</t>
+  </si>
+  <si>
+    <t>CALLE AYACUCHO 411</t>
+  </si>
+  <si>
+    <t>-17.19454</t>
+  </si>
+  <si>
+    <t>-70.93556</t>
+  </si>
+  <si>
+    <t>1424</t>
+  </si>
+  <si>
+    <t>VIRGEN DE GUADALUPE</t>
+  </si>
+  <si>
+    <t>CALLE VILLA ANGLO AMERICA SECTOR A-4</t>
+  </si>
+  <si>
+    <t>-17.19702</t>
+  </si>
+  <si>
+    <t>-70.91508</t>
+  </si>
+  <si>
+    <t>1554</t>
+  </si>
+  <si>
+    <t>LORD BYRON</t>
+  </si>
+  <si>
+    <t>CALLE ENRIQUE LOPEZ ALBUJAR S/N MZ C LOTE 27 ETAPA II</t>
+  </si>
+  <si>
+    <t>-17.20934</t>
+  </si>
+  <si>
+    <t>-70.94385</t>
+  </si>
+  <si>
+    <t>1369</t>
+  </si>
+  <si>
+    <t>SAN MARTIN DE PORRAS</t>
+  </si>
+  <si>
+    <t>AVENIDA EL PORVENIR MZ F LOTE 3</t>
+  </si>
+  <si>
+    <t>-17.20901</t>
+  </si>
+  <si>
+    <t>-70.95672</t>
+  </si>
+  <si>
+    <t>1304</t>
+  </si>
+  <si>
+    <t>GRUPO ITEP</t>
+  </si>
+  <si>
+    <t>AVENIDA ALFONSO UGARTE MZ A LOTE 6</t>
+  </si>
+  <si>
+    <t>-17.19612</t>
+  </si>
+  <si>
+    <t>-70.94639</t>
+  </si>
+  <si>
+    <t>1403</t>
+  </si>
+  <si>
+    <t>MITCHELL &amp; PORTER</t>
+  </si>
+  <si>
+    <t>MZ B LOTE 04</t>
+  </si>
+  <si>
+    <t>-17.19124</t>
+  </si>
+  <si>
+    <t>-70.95063</t>
+  </si>
+  <si>
+    <t>1366</t>
   </si>
 </sst>
 </file>
@@ -80,7 +471,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -88,11 +479,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -103,6 +537,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -899,4 +1351,620 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>